--- a/project_files/Tele2_TMS_Signal_integration_v3.4.xlsx
+++ b/project_files/Tele2_TMS_Signal_integration_v3.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VEG\SeaFile\Tele2-2018-TMS\07. Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VEG\SeaFile\Tele2-2018-TMS\08. Configurations\Python\for_ansible\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86BE8D0-6468-483A-9A44-DE2092A3BFA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F745B3-57BA-4D20-A109-451C9DF3F835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSK" sheetId="10" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="484">
   <si>
     <t>ул. Тургенева, 13а</t>
   </si>
@@ -2053,6 +2053,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2065,55 +2089,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2137,11 +2116,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5079,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F1BFC4-154B-4E41-ADF5-E4659C76D577}">
   <dimension ref="A2:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
@@ -8082,10 +8082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8684D7D-FCF7-4563-AA85-97CCAD69C167}">
   <dimension ref="A2:Q82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:Q21"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9539,16 +9539,14 @@
       </c>
       <c r="C49" s="85"/>
       <c r="D49" s="85"/>
-      <c r="E49" s="66" t="str">
-        <f>E8</f>
-        <v>10.224.37.89</v>
+      <c r="E49" s="66" t="s">
+        <v>368</v>
       </c>
       <c r="F49" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="85" t="str">
-        <f>G8</f>
-        <v>10.224.37.64/27</v>
+      <c r="G49" s="85" t="s">
+        <v>370</v>
       </c>
       <c r="H49" s="85" t="s">
         <v>23</v>
@@ -9582,9 +9580,8 @@
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
       <c r="D50" s="85"/>
-      <c r="E50" s="66" t="str">
-        <f>E9</f>
-        <v>10.224.37.90</v>
+      <c r="E50" s="66" t="s">
+        <v>369</v>
       </c>
       <c r="F50" s="85" t="s">
         <v>45</v>
@@ -9715,16 +9712,14 @@
       <c r="I55" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="73" t="str">
-        <f>K15</f>
-        <v>10.225.44.4</v>
+      <c r="J55" s="73" t="s">
+        <v>133</v>
       </c>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54"/>
-      <c r="N55" s="54" t="str">
-        <f>N15</f>
-        <v>pcrf02.ekt02.ekt.tele2</v>
+      <c r="N55" s="54" t="s">
+        <v>345</v>
       </c>
       <c r="O55" s="58" t="s">
         <v>234</v>
@@ -9759,15 +9754,13 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="74"/>
-      <c r="K56" s="74" t="str">
-        <f>J14</f>
-        <v>10.224.44.4</v>
+      <c r="K56" s="74" t="s">
+        <v>132</v>
       </c>
       <c r="L56" s="63"/>
       <c r="M56" s="63"/>
-      <c r="N56" s="63" t="str">
-        <f>N14</f>
-        <v>pcrf01.ekt01.ekt.tele2</v>
+      <c r="N56" s="63" t="s">
+        <v>344</v>
       </c>
       <c r="O56" s="72" t="s">
         <v>234</v>
@@ -10701,31 +10694,31 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="108">
         <v>1813</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>22</v>
@@ -10734,17 +10727,17 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>22</v>
@@ -10753,31 +10746,31 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="107"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="7">
         <v>3799</v>
       </c>
@@ -10788,17 +10781,17 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="107"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="7">
         <v>3799</v>
       </c>
@@ -10809,25 +10802,25 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -10846,13 +10839,13 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="14" t="s">
         <v>135</v>
       </c>
@@ -10869,23 +10862,23 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -10902,13 +10895,13 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
@@ -10925,13 +10918,13 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="8" t="s">
         <v>33</v>
       </c>
@@ -10948,13 +10941,13 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
@@ -10971,13 +10964,13 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="10" t="s">
         <v>35</v>
       </c>
@@ -10994,210 +10987,210 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="7">
         <v>3868</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="104" t="s">
+      <c r="L16" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="104"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="112" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="113"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="7">
         <v>3868</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="112" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="113"/>
+      <c r="I18" s="104"/>
       <c r="J18" s="7">
         <v>3868</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="112" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="113"/>
+      <c r="I19" s="104"/>
       <c r="J19" s="7">
         <v>3868</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="112" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="113"/>
+      <c r="I20" s="104"/>
       <c r="J20" s="7">
         <v>3868</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="112" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="113"/>
+      <c r="I21" s="104"/>
       <c r="J21" s="7">
         <v>3868</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="112" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="113"/>
+      <c r="I22" s="104"/>
       <c r="J22" s="7">
         <v>3868</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="112" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="113"/>
+      <c r="I23" s="104"/>
       <c r="J23" s="7">
         <v>3868</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="112" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="113"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="7">
         <v>3868</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="112" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="113"/>
+      <c r="I25" s="104"/>
       <c r="J25" s="7">
         <v>3868</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
     </row>
     <row r="26" spans="1:13" ht="30">
       <c r="A26" s="6" t="s">
@@ -11305,31 +11298,31 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="108">
         <v>1813</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="100" t="s">
+      <c r="F31" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="102" t="s">
+      <c r="H31" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="103"/>
+      <c r="I31" s="111"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
         <v>22</v>
@@ -11338,17 +11331,17 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="102" t="s">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="103"/>
+      <c r="I32" s="111"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
         <v>22</v>
@@ -11357,31 +11350,31 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="104" t="s">
+      <c r="G33" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="112" t="s">
+      <c r="H33" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="113"/>
+      <c r="I33" s="104"/>
       <c r="J33" s="7">
         <v>3799</v>
       </c>
@@ -11392,13 +11385,13 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
       <c r="H34" s="11" t="s">
         <v>126</v>
       </c>
@@ -11413,25 +11406,25 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="109" t="s">
+      <c r="E35" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="109" t="s">
+      <c r="F35" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -11450,13 +11443,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
       <c r="H36" s="14" t="s">
         <v>134</v>
       </c>
@@ -11473,23 +11466,23 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="30">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="111" t="s">
+      <c r="E37" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="109" t="s">
+      <c r="F37" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="109" t="s">
+      <c r="G37" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -11506,13 +11499,13 @@
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="8" t="s">
         <v>32</v>
       </c>
@@ -11529,13 +11522,13 @@
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="8" t="s">
         <v>33</v>
       </c>
@@ -11552,13 +11545,13 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="8" t="s">
         <v>34</v>
       </c>
@@ -11575,13 +11568,13 @@
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="110"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
       <c r="H41" s="10" t="s">
         <v>35</v>
       </c>
@@ -11598,210 +11591,210 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="113"/>
+      <c r="I42" s="104"/>
       <c r="J42" s="7">
         <v>3868</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="104" t="s">
+      <c r="L42" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="104"/>
+      <c r="M42" s="100"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="112" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="113"/>
+      <c r="I43" s="104"/>
       <c r="J43" s="7">
         <v>3868</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="112" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="113"/>
+      <c r="I44" s="104"/>
       <c r="J44" s="7">
         <v>3868</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="112" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="113"/>
+      <c r="I45" s="104"/>
       <c r="J45" s="7">
         <v>3868</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="112" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="113"/>
+      <c r="I46" s="104"/>
       <c r="J46" s="7">
         <v>3868</v>
       </c>
       <c r="K46" s="7"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="112" t="s">
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="113"/>
+      <c r="I47" s="104"/>
       <c r="J47" s="7">
         <v>3868</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="112" t="s">
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="113"/>
+      <c r="I48" s="104"/>
       <c r="J48" s="7">
         <v>3868</v>
       </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="112" t="s">
+      <c r="A49" s="101"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="113"/>
+      <c r="I49" s="104"/>
       <c r="J49" s="7">
         <v>3868</v>
       </c>
       <c r="K49" s="7"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="112" t="s">
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="113"/>
+      <c r="I50" s="104"/>
       <c r="J50" s="7">
         <v>3868</v>
       </c>
       <c r="K50" s="7"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="108"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="112" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="113"/>
+      <c r="I51" s="104"/>
       <c r="J51" s="7">
         <v>3868</v>
       </c>
       <c r="K51" s="7"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
     </row>
     <row r="52" spans="1:13" ht="30">
       <c r="A52" s="6" t="s">
@@ -11829,6 +11822,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D42:D51"/>
+    <mergeCell ref="E42:E51"/>
     <mergeCell ref="F42:F51"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
@@ -11845,85 +11917,6 @@
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D42:D51"/>
-    <mergeCell ref="E42:E51"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:L25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12050,10 +12043,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="103"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
         <v>22</v>
@@ -12061,33 +12054,33 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="H6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="107"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="7">
         <v>3799</v>
       </c>
@@ -12097,44 +12090,44 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="39"/>
@@ -12151,16 +12144,16 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="111"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="40"/>
       <c r="J9" s="14" t="s">
         <v>140</v>
@@ -12175,18 +12168,18 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="30">
-      <c r="A10" s="110"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="44"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111" t="s">
+      <c r="D10" s="126"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="26"/>
@@ -12203,24 +12196,24 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="27"/>
       <c r="J11" s="8" t="s">
         <v>32</v>
@@ -12237,16 +12230,16 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="27"/>
       <c r="J12" s="8" t="s">
         <v>33</v>
@@ -12263,14 +12256,14 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="27"/>
       <c r="J13" s="8" t="s">
         <v>34</v>
@@ -12287,14 +12280,14 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="28"/>
       <c r="J14" s="10" t="s">
         <v>35</v>
@@ -12311,318 +12304,318 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="37"/>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="113"/>
+      <c r="K15" s="104"/>
       <c r="L15" s="7">
         <v>3868</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="100" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="113"/>
+      <c r="K16" s="104"/>
       <c r="L16" s="7">
         <v>3868</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="108"/>
+      <c r="N16" s="101"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="112" t="s">
+      <c r="J17" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="113"/>
+      <c r="K17" s="104"/>
       <c r="L17" s="7">
         <v>3868</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="108"/>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="112" t="s">
+      <c r="J18" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="113"/>
+      <c r="K18" s="104"/>
       <c r="L18" s="7">
         <v>3868</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="108"/>
+      <c r="N18" s="101"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="112" t="s">
+      <c r="J19" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="113"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="7">
         <v>3868</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="108"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="112" t="s">
+      <c r="J20" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="113"/>
+      <c r="K20" s="104"/>
       <c r="L20" s="7">
         <v>3868</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="108"/>
+      <c r="N20" s="101"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="112" t="s">
+      <c r="J21" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="113"/>
+      <c r="K21" s="104"/>
       <c r="L21" s="7">
         <v>3868</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="108"/>
+      <c r="N21" s="101"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="112" t="s">
+      <c r="J22" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="113"/>
+      <c r="K22" s="104"/>
       <c r="L22" s="7">
         <v>3868</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="108"/>
+      <c r="N22" s="101"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="112" t="s">
+      <c r="J23" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="113"/>
+      <c r="K23" s="104"/>
       <c r="L23" s="7">
         <v>3868</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="108"/>
+      <c r="N23" s="101"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="128" t="s">
+      <c r="J24" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="129"/>
+      <c r="K24" s="128"/>
       <c r="L24" s="7">
         <v>3868</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="105"/>
+      <c r="N24" s="102"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="121"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="121">
+      <c r="E25" s="114">
         <v>21</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121" t="s">
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="N25" s="121"/>
+      <c r="N25" s="114"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5"/>
@@ -12736,10 +12729,10 @@
         <v>13</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="103"/>
+      <c r="K33" s="111"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
         <v>22</v>
@@ -12747,33 +12740,33 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="104" t="s">
+      <c r="H34" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="37"/>
-      <c r="J34" s="112" t="s">
+      <c r="J34" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="K34" s="113"/>
+      <c r="K34" s="104"/>
       <c r="L34" s="7">
         <v>3799</v>
       </c>
@@ -12783,14 +12776,14 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="31"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -12799,28 +12792,28 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="109" t="s">
+      <c r="E36" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="109" t="s">
+      <c r="F36" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="109" t="s">
+      <c r="G36" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="109" t="s">
+      <c r="H36" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="39"/>
@@ -12837,16 +12830,16 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="111"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
       <c r="I37" s="40"/>
       <c r="J37" s="14" t="s">
         <v>138</v>
@@ -12861,20 +12854,20 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
-      <c r="A38" s="110"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="44"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="111" t="s">
+      <c r="D38" s="126"/>
+      <c r="E38" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="111" t="s">
+      <c r="F38" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="109" t="s">
+      <c r="H38" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="26"/>
@@ -12891,22 +12884,22 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
       <c r="I39" s="27"/>
       <c r="J39" s="8" t="s">
         <v>32</v>
@@ -12923,16 +12916,16 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
       <c r="I40" s="27"/>
       <c r="J40" s="8" t="s">
         <v>33</v>
@@ -12949,14 +12942,14 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
       <c r="I41" s="27"/>
       <c r="J41" s="8" t="s">
         <v>34</v>
@@ -12973,14 +12966,14 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="110"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
       <c r="I42" s="28"/>
       <c r="J42" s="10" t="s">
         <v>35</v>
@@ -12997,319 +12990,410 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="104" t="s">
+      <c r="F43" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="G43" s="104" t="s">
+      <c r="G43" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="104" t="s">
+      <c r="H43" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="37"/>
-      <c r="J43" s="112" t="s">
+      <c r="J43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="K43" s="113"/>
+      <c r="K43" s="104"/>
       <c r="L43" s="7">
         <v>3868</v>
       </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="104" t="s">
+      <c r="N43" s="100" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="112" t="s">
+      <c r="J44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="113"/>
+      <c r="K44" s="104"/>
       <c r="L44" s="7">
         <v>3868</v>
       </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="108"/>
+      <c r="N44" s="101"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="112" t="s">
+      <c r="J45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="K45" s="113"/>
+      <c r="K45" s="104"/>
       <c r="L45" s="7">
         <v>3868</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="108"/>
+      <c r="N45" s="101"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="112" t="s">
+      <c r="J46" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="113"/>
+      <c r="K46" s="104"/>
       <c r="L46" s="7">
         <v>3868</v>
       </c>
       <c r="M46" s="7"/>
-      <c r="N46" s="108"/>
+      <c r="N46" s="101"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
       <c r="I47" s="41"/>
-      <c r="J47" s="112" t="s">
+      <c r="J47" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="K47" s="113"/>
+      <c r="K47" s="104"/>
       <c r="L47" s="7">
         <v>3868</v>
       </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="108"/>
+      <c r="N47" s="101"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
       <c r="I48" s="41"/>
-      <c r="J48" s="112" t="s">
+      <c r="J48" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="113"/>
+      <c r="K48" s="104"/>
       <c r="L48" s="7">
         <v>3868</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="108"/>
+      <c r="N48" s="101"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="112" t="s">
+      <c r="J49" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="113"/>
+      <c r="K49" s="104"/>
       <c r="L49" s="7">
         <v>3868</v>
       </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="108"/>
+      <c r="N49" s="101"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
       <c r="I50" s="41"/>
-      <c r="J50" s="112" t="s">
+      <c r="J50" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="113"/>
+      <c r="K50" s="104"/>
       <c r="L50" s="7">
         <v>3868</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="108"/>
+      <c r="N50" s="101"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="112" t="s">
+      <c r="J51" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="113"/>
+      <c r="K51" s="104"/>
       <c r="L51" s="7">
         <v>3868</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="108"/>
+      <c r="N51" s="101"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="38"/>
-      <c r="J52" s="112" t="s">
+      <c r="J52" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="113"/>
+      <c r="K52" s="104"/>
       <c r="L52" s="7">
         <v>3868</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="105"/>
+      <c r="N52" s="102"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="121"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="121">
+      <c r="E53" s="114">
         <v>21</v>
       </c>
-      <c r="F53" s="121" t="s">
+      <c r="F53" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121" t="s">
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="N53" s="121"/>
+      <c r="N53" s="114"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="121"/>
-      <c r="N56" s="121"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="N43:N52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="L53:L56"/>
     <mergeCell ref="M53:M56"/>
     <mergeCell ref="N53:N56"/>
@@ -13334,97 +13418,6 @@
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="L25:L28"/>
-    <mergeCell ref="N15:N24"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="N43:N52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="J25:K28"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13521,26 +13514,26 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="108" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="108">
         <v>1813</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="108" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -13619,32 +13612,32 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="107"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="7">
         <v>3799</v>
       </c>
@@ -13654,18 +13647,18 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="106" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="107"/>
+      <c r="J10" s="113"/>
       <c r="K10" s="7">
         <v>3799</v>
       </c>
@@ -13675,18 +13668,18 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="106" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="107"/>
+      <c r="J11" s="113"/>
       <c r="K11" s="7">
         <v>3799</v>
       </c>
@@ -13696,18 +13689,18 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="106" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="107"/>
+      <c r="J12" s="113"/>
       <c r="K12" s="7">
         <v>3799</v>
       </c>
@@ -13717,26 +13710,26 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -13754,14 +13747,14 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="14" t="s">
         <v>26</v>
       </c>
@@ -13777,26 +13770,26 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -13812,16 +13805,16 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
       <c r="I16" s="8" t="s">
         <v>32</v>
       </c>
@@ -13837,14 +13830,14 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
       <c r="I17" s="8" t="s">
         <v>33</v>
       </c>
@@ -13860,14 +13853,14 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="8" t="s">
         <v>34</v>
       </c>
@@ -13883,14 +13876,14 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="10" t="s">
         <v>35</v>
       </c>
@@ -13906,214 +13899,214 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="104" t="s">
+      <c r="H20" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="112" t="s">
+      <c r="I20" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="7">
         <v>3868</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="104" t="s">
+      <c r="M20" s="100" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="112" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="113"/>
+      <c r="J21" s="104"/>
       <c r="K21" s="7">
         <v>3868</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="108"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="112" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="113"/>
+      <c r="J22" s="104"/>
       <c r="K22" s="7">
         <v>3868</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="108"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="112" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="113"/>
+      <c r="J23" s="104"/>
       <c r="K23" s="7">
         <v>3868</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="108"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="112" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="113"/>
+      <c r="J24" s="104"/>
       <c r="K24" s="7">
         <v>3868</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="108"/>
+      <c r="M24" s="101"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="112" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="113"/>
+      <c r="J25" s="104"/>
       <c r="K25" s="7">
         <v>3868</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="108"/>
+      <c r="M25" s="101"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="112" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="113"/>
+      <c r="J26" s="104"/>
       <c r="K26" s="7">
         <v>3868</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="108"/>
+      <c r="M26" s="101"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="112" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="113"/>
+      <c r="J27" s="104"/>
       <c r="K27" s="7">
         <v>3868</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="108"/>
+      <c r="M27" s="101"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="112" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="113"/>
+      <c r="J28" s="104"/>
       <c r="K28" s="7">
         <v>3868</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="108"/>
+      <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="112" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="113"/>
+      <c r="J29" s="104"/>
       <c r="K29" s="7">
         <v>3868</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="105"/>
+      <c r="M29" s="102"/>
     </row>
     <row r="30" spans="1:13" ht="30">
       <c r="A30" s="6" t="s">
@@ -14224,26 +14217,26 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="108" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="108">
         <v>1813</v>
       </c>
-      <c r="F35" s="100" t="s">
+      <c r="F35" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="100" t="s">
+      <c r="H35" s="108" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -14322,32 +14315,32 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="20"/>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="106" t="s">
+      <c r="I39" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="J39" s="107"/>
+      <c r="J39" s="113"/>
       <c r="K39" s="7">
         <v>3799</v>
       </c>
@@ -14357,18 +14350,18 @@
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="106" t="s">
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="J40" s="107"/>
+      <c r="J40" s="113"/>
       <c r="K40" s="7">
         <v>3799</v>
       </c>
@@ -14378,18 +14371,18 @@
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="106" t="s">
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="107"/>
+      <c r="J41" s="113"/>
       <c r="K41" s="7">
         <v>3799</v>
       </c>
@@ -14399,18 +14392,18 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="106" t="s">
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="107"/>
+      <c r="J42" s="113"/>
       <c r="K42" s="7">
         <v>3799</v>
       </c>
@@ -14420,26 +14413,26 @@
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="109" t="s">
+      <c r="F43" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="109" t="s">
+      <c r="G43" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="109" t="s">
+      <c r="H43" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -14457,14 +14450,14 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
       <c r="I44" s="14" t="s">
         <v>25</v>
       </c>
@@ -14480,26 +14473,26 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111" t="s">
+      <c r="A45" s="106"/>
+      <c r="B45" s="106" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="111" t="s">
+      <c r="E45" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="111" t="s">
+      <c r="F45" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="109" t="s">
+      <c r="G45" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="109" t="s">
+      <c r="H45" s="105" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -14515,16 +14508,16 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
       <c r="I46" s="8" t="s">
         <v>32</v>
       </c>
@@ -14540,14 +14533,14 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
       <c r="I47" s="8" t="s">
         <v>33</v>
       </c>
@@ -14563,14 +14556,14 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="106"/>
+      <c r="B48" s="106"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
       <c r="I48" s="8" t="s">
         <v>34</v>
       </c>
@@ -14586,14 +14579,14 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="110"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
       <c r="I49" s="10" t="s">
         <v>35</v>
       </c>
@@ -14609,214 +14602,214 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="E50" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="104" t="s">
+      <c r="F50" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="104" t="s">
+      <c r="G50" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="104" t="s">
+      <c r="H50" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="112" t="s">
+      <c r="I50" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="113"/>
+      <c r="J50" s="104"/>
       <c r="K50" s="7">
         <v>3868</v>
       </c>
       <c r="L50" s="7"/>
-      <c r="M50" s="104" t="s">
+      <c r="M50" s="100" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="112" t="s">
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="113"/>
+      <c r="J51" s="104"/>
       <c r="K51" s="7">
         <v>3868</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="108"/>
+      <c r="M51" s="101"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="112" t="s">
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J52" s="113"/>
+      <c r="J52" s="104"/>
       <c r="K52" s="7">
         <v>3868</v>
       </c>
       <c r="L52" s="7"/>
-      <c r="M52" s="108"/>
+      <c r="M52" s="101"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="112" t="s">
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="113"/>
+      <c r="J53" s="104"/>
       <c r="K53" s="7">
         <v>3868</v>
       </c>
       <c r="L53" s="7"/>
-      <c r="M53" s="108"/>
+      <c r="M53" s="101"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="112" t="s">
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="113"/>
+      <c r="J54" s="104"/>
       <c r="K54" s="7">
         <v>3868</v>
       </c>
       <c r="L54" s="7"/>
-      <c r="M54" s="108"/>
+      <c r="M54" s="101"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="108"/>
-      <c r="B55" s="108"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="112" t="s">
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="113"/>
+      <c r="J55" s="104"/>
       <c r="K55" s="7">
         <v>3868</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="108"/>
+      <c r="M55" s="101"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="108"/>
-      <c r="B56" s="108"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="112" t="s">
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="113"/>
+      <c r="J56" s="104"/>
       <c r="K56" s="7">
         <v>3868</v>
       </c>
       <c r="L56" s="7"/>
-      <c r="M56" s="108"/>
+      <c r="M56" s="101"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="108"/>
-      <c r="B57" s="108"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="112" t="s">
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="113"/>
+      <c r="J57" s="104"/>
       <c r="K57" s="7">
         <v>3868</v>
       </c>
       <c r="L57" s="7"/>
-      <c r="M57" s="108"/>
+      <c r="M57" s="101"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="108"/>
-      <c r="B58" s="108"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="112" t="s">
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="113"/>
+      <c r="J58" s="104"/>
       <c r="K58" s="7">
         <v>3868</v>
       </c>
       <c r="L58" s="7"/>
-      <c r="M58" s="108"/>
+      <c r="M58" s="101"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="112" t="s">
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="J59" s="113"/>
+      <c r="J59" s="104"/>
       <c r="K59" s="7">
         <v>3868</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="105"/>
+      <c r="M59" s="102"/>
     </row>
     <row r="60" spans="1:13" ht="30">
       <c r="A60" s="6" t="s">
@@ -14845,6 +14838,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="H20:H29"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="E20:E29"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="M20:M29"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="H45:H49"/>
@@ -14861,84 +14932,6 @@
     <mergeCell ref="G50:G59"/>
     <mergeCell ref="H50:H59"/>
     <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="F50:F59"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="M20:M29"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="E20:E29"/>
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project_files/Tele2_TMS_Signal_integration_v3.4.xlsx
+++ b/project_files/Tele2_TMS_Signal_integration_v3.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VEG\SeaFile\Tele2-2018-TMS\08. Configurations\Python\for_ansible\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F745B3-57BA-4D20-A109-451C9DF3F835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D7F87-1CA6-40A4-8997-DE2159654C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSK" sheetId="10" r:id="rId1"/>
@@ -2053,30 +2053,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2089,10 +2065,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2116,32 +2137,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2534,10 +2534,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:Q35"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5079,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F1BFC4-154B-4E41-ADF5-E4659C76D577}">
   <dimension ref="A2:R98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -8082,10 +8082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8684D7D-FCF7-4563-AA85-97CCAD69C167}">
   <dimension ref="A2:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10694,31 +10694,31 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="100">
         <v>1813</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>22</v>
@@ -10727,17 +10727,17 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="111"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>22</v>
@@ -10746,31 +10746,31 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="113"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="7">
         <v>3799</v>
       </c>
@@ -10781,17 +10781,17 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="112" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="7">
         <v>3799</v>
       </c>
@@ -10802,25 +10802,25 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="109" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -10839,13 +10839,13 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="14" t="s">
         <v>135</v>
       </c>
@@ -10862,23 +10862,23 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="109" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -10895,13 +10895,13 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
@@ -10918,13 +10918,13 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="8" t="s">
         <v>33</v>
       </c>
@@ -10941,13 +10941,13 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
@@ -10964,13 +10964,13 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="10" t="s">
         <v>35</v>
       </c>
@@ -10987,210 +10987,210 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="7">
         <v>3868</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="100"/>
+      <c r="M16" s="104"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="103" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="104"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="7">
         <v>3868</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="103" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="104"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="7">
         <v>3868</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="101"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="103" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="104"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="7">
         <v>3868</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="103" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="104"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="7">
         <v>3868</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="103" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="104"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="7">
         <v>3868</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="103" t="s">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="104"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="7">
         <v>3868</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="103" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="104"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="7">
         <v>3868</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="103" t="s">
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="104"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="7">
         <v>3868</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="104"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="7">
         <v>3868</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
     </row>
     <row r="26" spans="1:13" ht="30">
       <c r="A26" s="6" t="s">
@@ -11298,31 +11298,31 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="100">
         <v>1813</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="110" t="s">
+      <c r="H31" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
         <v>22</v>
@@ -11331,17 +11331,17 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="110" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="111"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
         <v>22</v>
@@ -11350,31 +11350,31 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="100" t="s">
+      <c r="G33" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="103" t="s">
+      <c r="H33" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="104"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="7">
         <v>3799</v>
       </c>
@@ -11385,13 +11385,13 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
       <c r="H34" s="11" t="s">
         <v>126</v>
       </c>
@@ -11406,25 +11406,25 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D35" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="105" t="s">
+      <c r="G35" s="109" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -11443,13 +11443,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
       <c r="H36" s="14" t="s">
         <v>134</v>
       </c>
@@ -11466,23 +11466,23 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="30">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="105" t="s">
+      <c r="F37" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="105" t="s">
+      <c r="G37" s="109" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -11499,13 +11499,13 @@
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="106"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
       <c r="H38" s="8" t="s">
         <v>32</v>
       </c>
@@ -11522,13 +11522,13 @@
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="8" t="s">
         <v>33</v>
       </c>
@@ -11545,13 +11545,13 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
       <c r="H40" s="8" t="s">
         <v>34</v>
       </c>
@@ -11568,13 +11568,13 @@
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="10" t="s">
         <v>35</v>
       </c>
@@ -11591,210 +11591,210 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="100" t="s">
+      <c r="E42" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="100" t="s">
+      <c r="F42" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="100" t="s">
+      <c r="G42" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="103" t="s">
+      <c r="H42" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="104"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="7">
         <v>3868</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="100" t="s">
+      <c r="L42" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="100"/>
+      <c r="M42" s="104"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="101"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="103" t="s">
+      <c r="A43" s="108"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="104"/>
+      <c r="I43" s="113"/>
       <c r="J43" s="7">
         <v>3868</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="103" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="104"/>
+      <c r="I44" s="113"/>
       <c r="J44" s="7">
         <v>3868</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="103" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="104"/>
+      <c r="I45" s="113"/>
       <c r="J45" s="7">
         <v>3868</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="103" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="104"/>
+      <c r="I46" s="113"/>
       <c r="J46" s="7">
         <v>3868</v>
       </c>
       <c r="K46" s="7"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="101"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="103" t="s">
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="104"/>
+      <c r="I47" s="113"/>
       <c r="J47" s="7">
         <v>3868</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="101"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="103" t="s">
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="104"/>
+      <c r="I48" s="113"/>
       <c r="J48" s="7">
         <v>3868</v>
       </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="101"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="103" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="104"/>
+      <c r="I49" s="113"/>
       <c r="J49" s="7">
         <v>3868</v>
       </c>
       <c r="K49" s="7"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="101"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="103" t="s">
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="104"/>
+      <c r="I50" s="113"/>
       <c r="J50" s="7">
         <v>3868</v>
       </c>
       <c r="K50" s="7"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="102"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103" t="s">
+      <c r="A51" s="105"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="104"/>
+      <c r="I51" s="113"/>
       <c r="J51" s="7">
         <v>3868</v>
       </c>
       <c r="K51" s="7"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
     </row>
     <row r="52" spans="1:13" ht="30">
       <c r="A52" s="6" t="s">
@@ -11822,85 +11822,6 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:L25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D42:D51"/>
-    <mergeCell ref="E42:E51"/>
     <mergeCell ref="F42:F51"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
@@ -11917,6 +11838,85 @@
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D42:D51"/>
+    <mergeCell ref="E42:E51"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12043,10 +12043,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
         <v>22</v>
@@ -12054,33 +12054,33 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="104" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="113"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="7">
         <v>3799</v>
       </c>
@@ -12090,44 +12090,44 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="39"/>
@@ -12144,16 +12144,16 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="106"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="40"/>
       <c r="J9" s="14" t="s">
         <v>140</v>
@@ -12168,18 +12168,18 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="30">
-      <c r="A10" s="107"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="44"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106" t="s">
+      <c r="D10" s="119"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="26"/>
@@ -12196,24 +12196,24 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="27"/>
       <c r="J11" s="8" t="s">
         <v>32</v>
@@ -12230,16 +12230,16 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="27"/>
       <c r="J12" s="8" t="s">
         <v>33</v>
@@ -12256,14 +12256,14 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="27"/>
       <c r="J13" s="8" t="s">
         <v>34</v>
@@ -12280,14 +12280,14 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="28"/>
       <c r="J14" s="10" t="s">
         <v>35</v>
@@ -12304,318 +12304,318 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="104" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="37"/>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="7">
         <v>3868</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="100" t="s">
+      <c r="N15" s="104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="104"/>
+      <c r="K16" s="113"/>
       <c r="L16" s="7">
         <v>3868</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="101"/>
+      <c r="N16" s="108"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="104"/>
+      <c r="K17" s="113"/>
       <c r="L17" s="7">
         <v>3868</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="101"/>
+      <c r="N17" s="108"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="104"/>
+      <c r="K18" s="113"/>
       <c r="L18" s="7">
         <v>3868</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="101"/>
+      <c r="N18" s="108"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="104"/>
+      <c r="K19" s="113"/>
       <c r="L19" s="7">
         <v>3868</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="101"/>
+      <c r="N19" s="108"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="108" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="104"/>
+      <c r="K20" s="113"/>
       <c r="L20" s="7">
         <v>3868</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="101"/>
+      <c r="N20" s="108"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="104"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="7">
         <v>3868</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="101"/>
+      <c r="N21" s="108"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="103" t="s">
+      <c r="J22" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="104"/>
+      <c r="K22" s="113"/>
       <c r="L22" s="7">
         <v>3868</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="101"/>
+      <c r="N22" s="108"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="104"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="7">
         <v>3868</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="101"/>
+      <c r="N23" s="108"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="127" t="s">
+      <c r="J24" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="128"/>
+      <c r="K24" s="129"/>
       <c r="L24" s="7">
         <v>3868</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="102"/>
+      <c r="N24" s="105"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="114"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="114">
+      <c r="E25" s="121">
         <v>21</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114" t="s">
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="N25" s="114"/>
+      <c r="N25" s="121"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5"/>
@@ -12729,10 +12729,10 @@
         <v>13</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="110" t="s">
+      <c r="J33" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="111"/>
+      <c r="K33" s="103"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
         <v>22</v>
@@ -12740,33 +12740,33 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="100" t="s">
+      <c r="G34" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="100" t="s">
+      <c r="H34" s="104" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="37"/>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="K34" s="104"/>
+      <c r="K34" s="113"/>
       <c r="L34" s="7">
         <v>3799</v>
       </c>
@@ -12776,14 +12776,14 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="31"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -12792,28 +12792,28 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="114" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="124" t="s">
+      <c r="D36" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="105" t="s">
+      <c r="G36" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="105" t="s">
+      <c r="H36" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="39"/>
@@ -12830,16 +12830,16 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="106"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="40"/>
       <c r="J37" s="14" t="s">
         <v>138</v>
@@ -12854,20 +12854,20 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
-      <c r="A38" s="107"/>
-      <c r="B38" s="123"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="44"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="106" t="s">
+      <c r="D38" s="119"/>
+      <c r="E38" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="106" t="s">
+      <c r="F38" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="105" t="s">
+      <c r="G38" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="105" t="s">
+      <c r="H38" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="26"/>
@@ -12884,22 +12884,22 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="106" t="s">
+      <c r="D39" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
       <c r="I39" s="27"/>
       <c r="J39" s="8" t="s">
         <v>32</v>
@@ -12916,16 +12916,16 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
       <c r="I40" s="27"/>
       <c r="J40" s="8" t="s">
         <v>33</v>
@@ -12942,14 +12942,14 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
       <c r="I41" s="27"/>
       <c r="J41" s="8" t="s">
         <v>34</v>
@@ -12966,14 +12966,14 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="28"/>
       <c r="J42" s="10" t="s">
         <v>35</v>
@@ -12990,319 +12990,410 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="100" t="s">
+      <c r="E43" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="100" t="s">
+      <c r="F43" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="G43" s="100" t="s">
+      <c r="G43" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="100" t="s">
+      <c r="H43" s="104" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="37"/>
-      <c r="J43" s="103" t="s">
+      <c r="J43" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="K43" s="104"/>
+      <c r="K43" s="113"/>
       <c r="L43" s="7">
         <v>3868</v>
       </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="100" t="s">
+      <c r="N43" s="104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="103" t="s">
+      <c r="J44" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="104"/>
+      <c r="K44" s="113"/>
       <c r="L44" s="7">
         <v>3868</v>
       </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="101"/>
+      <c r="N44" s="108"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="103" t="s">
+      <c r="J45" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="K45" s="104"/>
+      <c r="K45" s="113"/>
       <c r="L45" s="7">
         <v>3868</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="101"/>
+      <c r="N45" s="108"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="103" t="s">
+      <c r="J46" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="104"/>
+      <c r="K46" s="113"/>
       <c r="L46" s="7">
         <v>3868</v>
       </c>
       <c r="M46" s="7"/>
-      <c r="N46" s="101"/>
+      <c r="N46" s="108"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="102"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
       <c r="I47" s="41"/>
-      <c r="J47" s="103" t="s">
+      <c r="J47" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="K47" s="104"/>
+      <c r="K47" s="113"/>
       <c r="L47" s="7">
         <v>3868</v>
       </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="101"/>
+      <c r="N47" s="108"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="108" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
       <c r="I48" s="41"/>
-      <c r="J48" s="103" t="s">
+      <c r="J48" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="104"/>
+      <c r="K48" s="113"/>
       <c r="L48" s="7">
         <v>3868</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="101"/>
+      <c r="N48" s="108"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="101"/>
-      <c r="B49" s="101"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="103" t="s">
+      <c r="J49" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="104"/>
+      <c r="K49" s="113"/>
       <c r="L49" s="7">
         <v>3868</v>
       </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="101"/>
+      <c r="N49" s="108"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
       <c r="I50" s="41"/>
-      <c r="J50" s="103" t="s">
+      <c r="J50" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="104"/>
+      <c r="K50" s="113"/>
       <c r="L50" s="7">
         <v>3868</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="101"/>
+      <c r="N50" s="108"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="101"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="103" t="s">
+      <c r="J51" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="104"/>
+      <c r="K51" s="113"/>
       <c r="L51" s="7">
         <v>3868</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="101"/>
+      <c r="N51" s="108"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="101"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
       <c r="I52" s="38"/>
-      <c r="J52" s="103" t="s">
+      <c r="J52" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="104"/>
+      <c r="K52" s="113"/>
       <c r="L52" s="7">
         <v>3868</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="102"/>
+      <c r="N52" s="105"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="114"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="114">
+      <c r="E53" s="121">
         <v>21</v>
       </c>
-      <c r="F53" s="114" t="s">
+      <c r="F53" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114" t="s">
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="N53" s="114"/>
+      <c r="N53" s="121"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="M53:M56"/>
+    <mergeCell ref="N53:N56"/>
+    <mergeCell ref="J53:K56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="N43:N52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:N31"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="J5:K5"/>
@@ -13327,97 +13418,6 @@
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="N43:N52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="J25:K28"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:N24"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="M53:M56"/>
-    <mergeCell ref="N53:N56"/>
-    <mergeCell ref="J53:K56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="L25:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13514,26 +13514,26 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="100">
         <v>1813</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="100" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -13612,32 +13612,32 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="113"/>
+      <c r="J9" s="107"/>
       <c r="K9" s="7">
         <v>3799</v>
       </c>
@@ -13647,18 +13647,18 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="112" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="113"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="7">
         <v>3799</v>
       </c>
@@ -13668,18 +13668,18 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="112" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="113"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="7">
         <v>3799</v>
       </c>
@@ -13689,18 +13689,18 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="112" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="113"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="7">
         <v>3799</v>
       </c>
@@ -13710,26 +13710,26 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -13747,14 +13747,14 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="14" t="s">
         <v>26</v>
       </c>
@@ -13770,26 +13770,26 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -13805,16 +13805,16 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="8" t="s">
         <v>32</v>
       </c>
@@ -13830,14 +13830,14 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="8" t="s">
         <v>33</v>
       </c>
@@ -13853,14 +13853,14 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="8" t="s">
         <v>34</v>
       </c>
@@ -13876,14 +13876,14 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="10" t="s">
         <v>35</v>
       </c>
@@ -13899,214 +13899,214 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="100" t="s">
+      <c r="H20" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="104"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="7">
         <v>3868</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="100" t="s">
+      <c r="M20" s="104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="103" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="104"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="7">
         <v>3868</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="101"/>
+      <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="103" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="104"/>
+      <c r="J22" s="113"/>
       <c r="K22" s="7">
         <v>3868</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="101"/>
+      <c r="M22" s="108"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="103" t="s">
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="104"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="7">
         <v>3868</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="101"/>
+      <c r="M23" s="108"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="103" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="104"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="7">
         <v>3868</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="101"/>
+      <c r="M24" s="108"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="103" t="s">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="104"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="7">
         <v>3868</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="101"/>
+      <c r="M25" s="108"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="103" t="s">
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="104"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="7">
         <v>3868</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="101"/>
+      <c r="M26" s="108"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="103" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="104"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="7">
         <v>3868</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="101"/>
+      <c r="M27" s="108"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="103" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="104"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="7">
         <v>3868</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="101"/>
+      <c r="M28" s="108"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="103" t="s">
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="104"/>
+      <c r="J29" s="113"/>
       <c r="K29" s="7">
         <v>3868</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="102"/>
+      <c r="M29" s="105"/>
     </row>
     <row r="30" spans="1:13" ht="30">
       <c r="A30" s="6" t="s">
@@ -14217,26 +14217,26 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="108" t="s">
+      <c r="D35" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="108">
+      <c r="E35" s="100">
         <v>1813</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="100" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -14315,32 +14315,32 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="20"/>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="100" t="s">
+      <c r="F39" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="100" t="s">
+      <c r="G39" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="100" t="s">
+      <c r="H39" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="112" t="s">
+      <c r="I39" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="J39" s="113"/>
+      <c r="J39" s="107"/>
       <c r="K39" s="7">
         <v>3799</v>
       </c>
@@ -14350,18 +14350,18 @@
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="112" t="s">
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="J40" s="113"/>
+      <c r="J40" s="107"/>
       <c r="K40" s="7">
         <v>3799</v>
       </c>
@@ -14371,18 +14371,18 @@
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="112" t="s">
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="113"/>
+      <c r="J41" s="107"/>
       <c r="K41" s="7">
         <v>3799</v>
       </c>
@@ -14392,18 +14392,18 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="112" t="s">
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="113"/>
+      <c r="J42" s="107"/>
       <c r="K42" s="7">
         <v>3799</v>
       </c>
@@ -14413,26 +14413,26 @@
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="105" t="s">
+      <c r="D43" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="E43" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="105" t="s">
+      <c r="G43" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="105" t="s">
+      <c r="H43" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -14450,14 +14450,14 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="14" t="s">
         <v>25</v>
       </c>
@@ -14473,26 +14473,26 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106" t="s">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="106" t="s">
+      <c r="F45" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="105" t="s">
+      <c r="G45" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="109" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -14508,16 +14508,16 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
       <c r="I46" s="8" t="s">
         <v>32</v>
       </c>
@@ -14533,14 +14533,14 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="106"/>
-      <c r="B47" s="106"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
       <c r="I47" s="8" t="s">
         <v>33</v>
       </c>
@@ -14556,14 +14556,14 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="106"/>
-      <c r="B48" s="106"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
       <c r="I48" s="8" t="s">
         <v>34</v>
       </c>
@@ -14579,14 +14579,14 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="10" t="s">
         <v>35</v>
       </c>
@@ -14602,214 +14602,214 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="100" t="s">
+      <c r="E50" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="100" t="s">
+      <c r="F50" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="G50" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="100" t="s">
+      <c r="H50" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="103" t="s">
+      <c r="I50" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="104"/>
+      <c r="J50" s="113"/>
       <c r="K50" s="7">
         <v>3868</v>
       </c>
       <c r="L50" s="7"/>
-      <c r="M50" s="100" t="s">
+      <c r="M50" s="104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="101"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="103" t="s">
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="104"/>
+      <c r="J51" s="113"/>
       <c r="K51" s="7">
         <v>3868</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="101"/>
+      <c r="M51" s="108"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="101"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="103" t="s">
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="J52" s="104"/>
+      <c r="J52" s="113"/>
       <c r="K52" s="7">
         <v>3868</v>
       </c>
       <c r="L52" s="7"/>
-      <c r="M52" s="101"/>
+      <c r="M52" s="108"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="101"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="103" t="s">
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="104"/>
+      <c r="J53" s="113"/>
       <c r="K53" s="7">
         <v>3868</v>
       </c>
       <c r="L53" s="7"/>
-      <c r="M53" s="101"/>
+      <c r="M53" s="108"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="101"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="103" t="s">
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="104"/>
+      <c r="J54" s="113"/>
       <c r="K54" s="7">
         <v>3868</v>
       </c>
       <c r="L54" s="7"/>
-      <c r="M54" s="101"/>
+      <c r="M54" s="108"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="101"/>
-      <c r="B55" s="101"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
       <c r="C55" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="103" t="s">
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="104"/>
+      <c r="J55" s="113"/>
       <c r="K55" s="7">
         <v>3868</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="101"/>
+      <c r="M55" s="108"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="103" t="s">
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="104"/>
+      <c r="J56" s="113"/>
       <c r="K56" s="7">
         <v>3868</v>
       </c>
       <c r="L56" s="7"/>
-      <c r="M56" s="101"/>
+      <c r="M56" s="108"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="101"/>
-      <c r="B57" s="101"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="103" t="s">
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="104"/>
+      <c r="J57" s="113"/>
       <c r="K57" s="7">
         <v>3868</v>
       </c>
       <c r="L57" s="7"/>
-      <c r="M57" s="101"/>
+      <c r="M57" s="108"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="103" t="s">
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="104"/>
+      <c r="J58" s="113"/>
       <c r="K58" s="7">
         <v>3868</v>
       </c>
       <c r="L58" s="7"/>
-      <c r="M58" s="101"/>
+      <c r="M58" s="108"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="102"/>
-      <c r="B59" s="102"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="103" t="s">
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="J59" s="104"/>
+      <c r="J59" s="113"/>
       <c r="K59" s="7">
         <v>3868</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="102"/>
+      <c r="M59" s="105"/>
     </row>
     <row r="60" spans="1:13" ht="30">
       <c r="A60" s="6" t="s">
@@ -14838,84 +14838,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="E20:E29"/>
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="M20:M29"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="F50:F59"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="H45:H49"/>
@@ -14932,6 +14854,84 @@
     <mergeCell ref="G50:G59"/>
     <mergeCell ref="H50:H59"/>
     <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="M20:M29"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="E20:E29"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="H20:H29"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
